--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABC/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABC/15/seed2/result_data_RandomForest.xlsx
@@ -465,7 +465,7 @@
         <v>-20.51</v>
       </c>
       <c r="B2" t="n">
-        <v>8.340000000000002</v>
+        <v>8.270800000000003</v>
       </c>
       <c r="C2" t="n">
         <v>-10.94</v>
@@ -479,13 +479,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.84729999999999</v>
+        <v>-21.78090000000001</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.00989999999999</v>
+        <v>-10.996</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.58079999999999</v>
+        <v>-11.25419999999999</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.74100000000001</v>
+        <v>-21.76330000000001</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.35209999999998</v>
+        <v>-20.17159999999999</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.07929999999998</v>
+        <v>-20.28639999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -842,7 +842,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-12.57639999999999</v>
+        <v>-13.05459999999999</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -853,13 +853,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.9145</v>
+        <v>-21.95409999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>5.874799999999991</v>
+        <v>5.866999999999996</v>
       </c>
       <c r="C25" t="n">
-        <v>-13.0354</v>
+        <v>-13.40439999999999</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.02929999999996</v>
+        <v>-21.05239999999996</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.291799999999999</v>
+        <v>6.064400000000005</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.73709999999997</v>
+        <v>-20.74969999999998</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.174200000000002</v>
+        <v>5.084199999999998</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -1094,7 +1094,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>9.641100000000003</v>
+        <v>9.858500000000003</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -1247,7 +1247,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.028400000000006</v>
+        <v>5.389800000000003</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1284,7 +1284,7 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.48539999999999</v>
+        <v>-13.3089</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.6774</v>
+        <v>5.674899999999997</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.082300000000001</v>
+        <v>4.9176</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1329,13 +1329,13 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.4534</v>
+        <v>-21.46320000000001</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
       </c>
       <c r="C53" t="n">
-        <v>-10.3418</v>
+        <v>-10.2589</v>
       </c>
       <c r="D53" t="n">
         <v>-7.23</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>6.053499999999998</v>
+        <v>5.909599999999994</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>4.9368</v>
+        <v>4.949599999999998</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1397,13 +1397,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.1257</v>
+        <v>-22.092</v>
       </c>
       <c r="B57" t="n">
-        <v>5.3795</v>
+        <v>5.267399999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>-12.43529999999999</v>
+        <v>-12.78599999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.50190000000001</v>
+        <v>-22.4796</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1471,7 +1471,7 @@
         <v>8.33</v>
       </c>
       <c r="C61" t="n">
-        <v>-12.89339999999999</v>
+        <v>-13.03929999999998</v>
       </c>
       <c r="D61" t="n">
         <v>-7.97</v>
@@ -1505,7 +1505,7 @@
         <v>4.39</v>
       </c>
       <c r="C63" t="n">
-        <v>-11.6911</v>
+        <v>-11.8811</v>
       </c>
       <c r="D63" t="n">
         <v>-7.14</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.64529999999997</v>
+        <v>-21.60239999999999</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1624,7 +1624,7 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-11.74589999999999</v>
+        <v>-11.567</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.670099999999993</v>
+        <v>8.3711</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.5487</v>
+        <v>-20.53490000000001</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.93939999999999</v>
+        <v>-21.91269999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1896,7 +1896,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-13.08119999999999</v>
+        <v>-13.2992</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1944,7 +1944,7 @@
         <v>-21.45</v>
       </c>
       <c r="B89" t="n">
-        <v>5.386899999999997</v>
+        <v>5.200899999999995</v>
       </c>
       <c r="C89" t="n">
         <v>-10.11</v>
@@ -1961,7 +1961,7 @@
         <v>-21.82</v>
       </c>
       <c r="B90" t="n">
-        <v>5.473100000000001</v>
+        <v>5.487300000000001</v>
       </c>
       <c r="C90" t="n">
         <v>-12.06</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.27470000000001</v>
+        <v>-21.29030000000001</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1995,7 +1995,7 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>5.331999999999995</v>
+        <v>5.205999999999992</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-20.85329999999998</v>
+        <v>-20.93089999999998</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2100,7 +2100,7 @@
         <v>4.73</v>
       </c>
       <c r="C98" t="n">
-        <v>-11.6626</v>
+        <v>-11.63919999999999</v>
       </c>
       <c r="D98" t="n">
         <v>-9.33</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.86869999999999</v>
+        <v>-13.19949999999998</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.0938</v>
+        <v>-13.11310000000001</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
